--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rspo3-Lgr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rspo3-Lgr4.xlsx
@@ -540,10 +540,10 @@
         <v>7.522864</v>
       </c>
       <c r="I2">
-        <v>0.9939780200440224</v>
+        <v>0.9300694554254023</v>
       </c>
       <c r="J2">
-        <v>0.9939780200440224</v>
+        <v>0.9300694554254023</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.660964666666667</v>
+        <v>1.321358333333333</v>
       </c>
       <c r="N2">
-        <v>4.982894</v>
+        <v>3.964075</v>
       </c>
       <c r="O2">
-        <v>0.09230299804773986</v>
+        <v>0.06904315418552966</v>
       </c>
       <c r="P2">
-        <v>0.09230299804773986</v>
+        <v>0.06904315418552966</v>
       </c>
       <c r="Q2">
-        <v>4.165070432046222</v>
+        <v>3.313466345644444</v>
       </c>
       <c r="R2">
-        <v>37.485633888416</v>
+        <v>29.8211971108</v>
       </c>
       <c r="S2">
-        <v>0.09174715124361973</v>
+        <v>0.06421492881418765</v>
       </c>
       <c r="T2">
-        <v>0.09174715124361973</v>
+        <v>0.06421492881418765</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>7.522864</v>
       </c>
       <c r="I3">
-        <v>0.9939780200440224</v>
+        <v>0.9300694554254023</v>
       </c>
       <c r="J3">
-        <v>0.9939780200440224</v>
+        <v>0.9300694554254023</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>26.17006</v>
       </c>
       <c r="O3">
-        <v>0.4847735065384163</v>
+        <v>0.4558096119837698</v>
       </c>
       <c r="P3">
-        <v>0.4847735065384163</v>
+        <v>0.4558096119837698</v>
       </c>
       <c r="Q3">
         <v>21.87486691687111</v>
@@ -632,10 +632,10 @@
         <v>196.87380225184</v>
       </c>
       <c r="S3">
-        <v>0.481854210198853</v>
+        <v>0.4239345975954087</v>
       </c>
       <c r="T3">
-        <v>0.481854210198853</v>
+        <v>0.4239345975954087</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>7.522864</v>
       </c>
       <c r="I4">
-        <v>0.9939780200440224</v>
+        <v>0.9300694554254023</v>
       </c>
       <c r="J4">
-        <v>0.9939780200440224</v>
+        <v>0.9300694554254023</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.610381</v>
+        <v>9.093439666666667</v>
       </c>
       <c r="N4">
-        <v>22.831143</v>
+        <v>27.280319</v>
       </c>
       <c r="O4">
-        <v>0.4229234954138438</v>
+        <v>0.4751472338307006</v>
       </c>
       <c r="P4">
-        <v>0.4229234954138438</v>
+        <v>0.4751472338307005</v>
       </c>
       <c r="Q4">
-        <v>19.08395375039467</v>
+        <v>22.80290330151289</v>
       </c>
       <c r="R4">
-        <v>171.755583753552</v>
+        <v>205.226129713616</v>
       </c>
       <c r="S4">
-        <v>0.4203766586015497</v>
+        <v>0.441919929015806</v>
       </c>
       <c r="T4">
-        <v>0.4203766586015496</v>
+        <v>0.4419199290158059</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.01519233333333333</v>
+        <v>0.1885443333333333</v>
       </c>
       <c r="H5">
-        <v>0.045577</v>
+        <v>0.5656329999999999</v>
       </c>
       <c r="I5">
-        <v>0.006021979955977724</v>
+        <v>0.06993054457459773</v>
       </c>
       <c r="J5">
-        <v>0.006021979955977723</v>
+        <v>0.06993054457459771</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.660964666666667</v>
+        <v>1.321358333333333</v>
       </c>
       <c r="N5">
-        <v>4.982894</v>
+        <v>3.964075</v>
       </c>
       <c r="O5">
-        <v>0.09230299804773986</v>
+        <v>0.06904315418552966</v>
       </c>
       <c r="P5">
-        <v>0.09230299804773986</v>
+        <v>0.06904315418552966</v>
       </c>
       <c r="Q5">
-        <v>0.02523392887088889</v>
+        <v>0.2491346260527777</v>
       </c>
       <c r="R5">
-        <v>0.227105359838</v>
+        <v>2.242211634475</v>
       </c>
       <c r="S5">
-        <v>0.0005558468041201405</v>
+        <v>0.004828225371342005</v>
       </c>
       <c r="T5">
-        <v>0.0005558468041201404</v>
+        <v>0.004828225371342004</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.01519233333333333</v>
+        <v>0.1885443333333333</v>
       </c>
       <c r="H6">
-        <v>0.045577</v>
+        <v>0.5656329999999999</v>
       </c>
       <c r="I6">
-        <v>0.006021979955977724</v>
+        <v>0.06993054457459773</v>
       </c>
       <c r="J6">
-        <v>0.006021979955977723</v>
+        <v>0.06993054457459771</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>26.17006</v>
       </c>
       <c r="O6">
-        <v>0.4847735065384163</v>
+        <v>0.4558096119837698</v>
       </c>
       <c r="P6">
-        <v>0.4847735065384163</v>
+        <v>0.4558096119837698</v>
       </c>
       <c r="Q6">
-        <v>0.1325280916244445</v>
+        <v>1.644738838664444</v>
       </c>
       <c r="R6">
-        <v>1.19275282462</v>
+        <v>14.80264954798</v>
       </c>
       <c r="S6">
-        <v>0.00291929633956338</v>
+        <v>0.03187501438836111</v>
       </c>
       <c r="T6">
-        <v>0.002919296339563379</v>
+        <v>0.0318750143883611</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.01519233333333333</v>
+        <v>0.1885443333333333</v>
       </c>
       <c r="H7">
-        <v>0.045577</v>
+        <v>0.5656329999999999</v>
       </c>
       <c r="I7">
-        <v>0.006021979955977724</v>
+        <v>0.06993054457459773</v>
       </c>
       <c r="J7">
-        <v>0.006021979955977723</v>
+        <v>0.06993054457459771</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.610381</v>
+        <v>9.093439666666667</v>
       </c>
       <c r="N7">
-        <v>22.831143</v>
+        <v>27.280319</v>
       </c>
       <c r="O7">
-        <v>0.4229234954138438</v>
+        <v>0.4751472338307006</v>
       </c>
       <c r="P7">
-        <v>0.4229234954138438</v>
+        <v>0.4751472338307005</v>
       </c>
       <c r="Q7">
-        <v>0.1156194449456667</v>
+        <v>1.714516519658555</v>
       </c>
       <c r="R7">
-        <v>1.040575004511</v>
+        <v>15.430648676927</v>
       </c>
       <c r="S7">
-        <v>0.002546836812294204</v>
+        <v>0.03322730481489462</v>
       </c>
       <c r="T7">
-        <v>0.002546836812294204</v>
+        <v>0.0332273048148946</v>
       </c>
     </row>
   </sheetData>
